--- a/biology/Biochimie/Sulfate_d'héparane/Sulfate_d'héparane.xlsx
+++ b/biology/Biochimie/Sulfate_d'héparane/Sulfate_d'héparane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sulfate_d%27h%C3%A9parane</t>
+          <t>Sulfate_d'héparane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sulfate d'héparane (ou héparane sulfate)  est un polysaccharide présent dans le milieu extracellulaire des tissus animaux.
 L'unité de base de l'héparane sulfate est un acide D-Glucuronique ou un acide L-Iduronique relié par une liaison α 1-4 à une glucosamine. La liaison entre les disaccharides est de type α 1-4 si la composition implique l'acide L-Iduronique, et β 1-4 pour l'acide D-Glucuronique. 
-Il s'attache à des protéoglycanes et se retrouve à la surface des cellules ou dans la matrice extracellulaire[1].
+Il s'attache à des protéoglycanes et se retrouve à la surface des cellules ou dans la matrice extracellulaire.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sulfate_d%27h%C3%A9parane</t>
+          <t>Sulfate_d'héparane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Enjeux médicaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'héparane sulfate est une molécule qui permet au virus du VIH de se lier aux spermatozoïdes[2].
-Chez les patients atteints de la Maladie d'Alzheimer les agrégats de protéine Tau (anormalement hyperphosphorylée) (et/ou les plaques bêta amyloïdes) apparaissent au même endroit que des héparanes sulfates. Une forme simple d'héparane sulfate, l'héparine est apparue être un facteur essentiel dans l'hyperphosphorylation de la protéine Tau et donc dans la maladie d’Alzheimer[3].
-Chez le modèle animal (poisson zèbre) inhiber la sulfatation des héparanes peut réduire l'hyperphosphorylation des protéines Tau. Une piste médicamenteuse à l'étude est donc de bloquer la synthèse de cette sorte d'héparane sulfate chez les patients pour réduire la progression de la maladie d’Alzheimer[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'héparane sulfate est une molécule qui permet au virus du VIH de se lier aux spermatozoïdes.
+Chez les patients atteints de la Maladie d'Alzheimer les agrégats de protéine Tau (anormalement hyperphosphorylée) (et/ou les plaques bêta amyloïdes) apparaissent au même endroit que des héparanes sulfates. Une forme simple d'héparane sulfate, l'héparine est apparue être un facteur essentiel dans l'hyperphosphorylation de la protéine Tau et donc dans la maladie d’Alzheimer.
+Chez le modèle animal (poisson zèbre) inhiber la sulfatation des héparanes peut réduire l'hyperphosphorylation des protéines Tau. Une piste médicamenteuse à l'étude est donc de bloquer la synthèse de cette sorte d'héparane sulfate chez les patients pour réduire la progression de la maladie d’Alzheimer.
 </t>
         </is>
       </c>
